--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1808,10 +1820,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1855,28 +1867,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1901,28 +1913,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2173,28 +2185,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2219,28 +2231,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2879,10 +2891,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2926,28 +2938,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2972,28 +2984,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3226,10 +3238,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3273,28 +3285,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3319,28 +3331,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3631,10 +3643,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3678,28 +3690,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3724,28 +3736,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4135,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4170,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4228,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4383,10 +4395,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4430,28 +4442,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4476,28 +4488,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
